--- a/biology/Zoologie/Crocidura_pachyura/Crocidura_pachyura.xlsx
+++ b/biology/Zoologie/Crocidura_pachyura/Crocidura_pachyura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crocidure d'Afrique du Nord
 La Crocidure d'Afrique du Nord (Crocidura pachyura) est une espèce de mammifère de la famille des Soricidae. Ce mammifère se rencontre sur les îles d'Ibiza, de Sardaigne et de Pantelleria, dans le nord de l'Algérie et dans le nord de la Tunisie.
